--- a/Data_for_MovieReview_dataset.xlsx
+++ b/Data_for_MovieReview_dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="19040" tabRatio="500"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="25600" windowHeight="19040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="159">
   <si>
     <t>Remove Punctuation</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>Negative Score: 0.788</t>
+  </si>
+  <si>
+    <t>Negative Score: 0.132</t>
   </si>
 </sst>
 </file>
@@ -898,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -922,7 +925,7 @@
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -947,8 +950,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -973,8 +979,11 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -999,8 +1008,11 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1025,8 +1037,11 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1051,8 +1066,11 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1077,8 +1095,11 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1103,8 +1124,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1129,8 +1153,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1152,8 +1179,11 @@
       <c r="H13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -1175,8 +1205,11 @@
       <c r="H14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -1198,8 +1231,11 @@
       <c r="H15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -1221,8 +1257,11 @@
       <c r="H16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -1244,8 +1283,11 @@
       <c r="H17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -1267,8 +1309,11 @@
       <c r="H18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -1290,8 +1335,11 @@
       <c r="H19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1361,11 @@
       <c r="H20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -1336,8 +1387,11 @@
       <c r="H21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -1359,8 +1413,11 @@
       <c r="H22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -1382,8 +1439,11 @@
       <c r="H23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -1405,8 +1465,11 @@
       <c r="H24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
         <v>16</v>
       </c>
@@ -1428,8 +1491,11 @@
       <c r="H25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1451,8 +1517,11 @@
       <c r="H26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
         <v>17</v>
       </c>
@@ -1474,13 +1543,16 @@
       <c r="H27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="F29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -1506,7 +1578,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
         <v>4</v>
       </c>
